--- a/benckmark.xlsx
+++ b/benckmark.xlsx
@@ -12,9 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="cpu" sheetId="1" r:id="rId1"/>
+    <sheet name="mem" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mem!$A$1:$D$87</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="207">
   <si>
     <t>max_docs</t>
   </si>
@@ -637,6 +641,15 @@
   </si>
   <si>
     <t>python NED.py 401000</t>
+  </si>
+  <si>
+    <t>Intel i5 - 2.6 GHz. 8 GB Memory. 64-bit operating system (Windows 7)</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>usage/1MB</t>
   </si>
 </sst>
 </file>
@@ -754,7 +767,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>cpu!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -801,10 +814,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$95</c:f>
+              <c:f>cpu!$A$2:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1086,16 +1099,79 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>217000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>219000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>221000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>223000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>227000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>229000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$95</c:f>
+              <c:f>cpu!$B$2:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>4.07077836990356</c:v>
                 </c:pt>
@@ -1377,6 +1453,69 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>610.28703284263599</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>684.33784031867901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>737.15040063857998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>763.381645917892</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>754.47586512565601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>809.09778714179902</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>647.89555311203003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>659.59189200401295</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>659.31783699989296</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>659.23081970214798</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>676.94136118888798</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>677.89955282211304</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>680.628098487854</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>698.97276663780201</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>700.99717140197697</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>758.22861552238396</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>773.80573010444596</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>777.80553007125798</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>947.54647135734501</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1041.2882158756199</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1122.84952521324</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1067.2624099254599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,11 +1530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371297928"/>
-        <c:axId val="371297536"/>
+        <c:axId val="307214184"/>
+        <c:axId val="307214576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371297928"/>
+        <c:axId val="307214184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,12 +1591,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371297536"/>
+        <c:crossAx val="307214576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371297536"/>
+        <c:axId val="307214576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371297928"/>
+        <c:crossAx val="307214184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1563,7 +1702,2029 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance Graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cpu!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minutes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cpu!$D$2:$D$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>101000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>107000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>109000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>113000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>117000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>121000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>123000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>127000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>129000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>131000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>133000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>137000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>139000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>141000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>143000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>147000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>149000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>151000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>157000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>159000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>163000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>167000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>169000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>173000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>217000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>219000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>221000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>223000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>227000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>229000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cpu!$E$2:$E$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>6.7846306165059406E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17553065617879199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23841178814570099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34426335493723498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45363053480784099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55563325881958003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65536999702453602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.762387883663177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84534143606821699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93973935047785395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0348798354466699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.12267105579376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.26325699488321</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.31500378847122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4111126144727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.50603900750478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6026837587356499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.79317640860875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7975907643636</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9673595190048201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1134228110313402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.20816624959309</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5751433054606099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7116632541020702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9756413737932799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7533505201339699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.85837152004241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9758617202440898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9464558362960802</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4543240586916601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.2728207786877</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.406830910841601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6992395401000904</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.240730988979299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2673700094222999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.42318450212478</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.46450943152109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5316395203272499</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.66091537078221</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.81831351121266</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9245680928230202</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6619822104771904</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7464657704035398</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.8711073597272199</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2579013705253601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4936485091845197</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.5684301296869902</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.6839699029922404</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.5795656919479297</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.5487428585688203</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.1549140731493601</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3293322761853501</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.3614054004351299</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.1735511700312298</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3201138099034599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3985128204027797</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.4999831120173104</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7001564701398202</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7907412489255199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.8970791816711401</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.02498809099197</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1586648186047803</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.3359502712885503</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.5173698822657196</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.5188201705614697</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5757315476735396</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6910046021143597</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.0196703195571901</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.9953321218490601</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.0914180000623004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.2067910671234099</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.3428015987078297</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.4622421503067002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.5860335707664399</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.7499663472175602</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.8175465305646199</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.0268383820851597</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.1173731525739008</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.3593548695246298</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.4287187417348193</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.6364769498507101</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.58741714159647</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.8705904324849403</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0198202689488696</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.06389575004577</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.2037737210591608</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.3598882714907301</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.4893974979718507</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.5958521207173604</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.6916712800661706</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.8149292627970297</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.8151793122291497</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.9894308209419194</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.1714505473772</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11.405630671977899</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12.285840010643</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12.7230274319648</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>12.574597752094199</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.484963119029899</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.798259218533801</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.9931982000668</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.9886306166648</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.987180328369099</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11.282356019814801</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.2983258803685</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.3438016414642</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.64954611063</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.6832861900329</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12.637143592039701</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12.896762168407401</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12.963425501187601</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>15.792441189289001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17.354803597926999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18.714158753553999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17.787706832091001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="305248968"/>
+        <c:axId val="305249360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="305248968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> tweets</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305249360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="305249360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Minutes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305248968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mem!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>usage/1MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mem!$A$2:$A$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>101000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>107000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>109000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>113000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>117000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>121000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>123000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>127000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>129000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>131000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>133000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>137000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>139000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>141000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>143000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>147000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>149000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>151000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>157000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>159000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>163000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>167000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>169000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mem!$E$2:$E$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>0.14275741577148438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.80859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329.5234375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>392.828125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>467.7421875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>518.69140625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>570.6796875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>641.1484375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>688.62109375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>733.3046875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>795.6796875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>839.7890625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>910.9375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>947.32421875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>988.09765625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1049.26171875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1088.55859375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1146.16796875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1186.63671875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1225.94921875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1284.71875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1319.40625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1378.7578125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1415.9140625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1463.31640625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1519.203125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1552.94140625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1587.05859375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1640.22265625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1674.75390625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1727.26953125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1761.13671875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1778.35546875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1847.31640625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1880.99609375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1931.28125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1961.11328125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1995.36328125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2049.2109375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2081.85546875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2137.37109375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2167.75390625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2202.4140625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2253.6171875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2292.125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2323.23046875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2373.64453125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2432.44140625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2482</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2511.7578125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2584.64453125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2620.3203125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2669.47265625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2698.53515625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2728.09765625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2780.44921875</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2811.38671875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2857.87109375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2890.08984375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2919.5234375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2969.7578125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2998.9765625</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3050.0703125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3076.30078125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3140.6796875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3170.08984375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3200.484375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3248.953125</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3278.92578125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3307.6484375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3350.40234375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3386.27734375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3413.828125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3462.69140625</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3489.51171875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3518.625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3558.8203125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3586.359375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3640.359375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3669.453125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3682.1328125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3744.6875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3771.69921875</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3818.9765625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3839.03125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="416670752"/>
+        <c:axId val="416669968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="416670752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416669968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416669968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416670752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2119,17 +4280,1049 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>252412</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>557212</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
@@ -2137,6 +5330,73 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2417,1070 +5677,3242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>4.07077836990356</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>6.7846306165059406E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3000</v>
+      </c>
+      <c r="B3">
+        <v>10.5318393707275</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <v>0.17553065617879199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5000</v>
+      </c>
+      <c r="B4">
+        <v>14.304707288742</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="E4">
+        <v>0.23841178814570099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7000</v>
+      </c>
+      <c r="B5">
+        <v>20.655801296234099</v>
+      </c>
+      <c r="D5">
+        <v>7000</v>
+      </c>
+      <c r="E5">
+        <v>0.34426335493723498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9000</v>
+      </c>
+      <c r="B6">
+        <v>27.217832088470399</v>
+      </c>
+      <c r="D6">
+        <v>9000</v>
+      </c>
+      <c r="E6">
+        <v>0.45363053480784099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11000</v>
+      </c>
+      <c r="B7">
+        <v>33.337995529174798</v>
+      </c>
+      <c r="D7">
+        <v>11000</v>
+      </c>
+      <c r="E7">
+        <v>0.55563325881958003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13000</v>
+      </c>
+      <c r="B8">
+        <v>39.322199821472097</v>
+      </c>
+      <c r="D8">
+        <v>13000</v>
+      </c>
+      <c r="E8">
+        <v>0.65536999702453602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15000</v>
+      </c>
+      <c r="B9">
+        <v>45.7432730197906</v>
+      </c>
+      <c r="D9">
+        <v>15000</v>
+      </c>
+      <c r="E9">
+        <v>0.762387883663177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>17000</v>
+      </c>
+      <c r="B10">
+        <v>50.720486164093003</v>
+      </c>
+      <c r="D10">
+        <v>17000</v>
+      </c>
+      <c r="E10">
+        <v>0.84534143606821699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>19000</v>
+      </c>
+      <c r="B11">
+        <v>56.384361028671201</v>
+      </c>
+      <c r="D11">
+        <v>19000</v>
+      </c>
+      <c r="E11">
+        <v>0.93973935047785395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21000</v>
+      </c>
+      <c r="B12">
+        <v>62.092790126800502</v>
+      </c>
+      <c r="D12">
+        <v>21000</v>
+      </c>
+      <c r="E12">
+        <v>1.0348798354466699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>23000</v>
+      </c>
+      <c r="B13">
+        <v>67.360263347625704</v>
+      </c>
+      <c r="D13">
+        <v>23000</v>
+      </c>
+      <c r="E13">
+        <v>1.12267105579376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25000</v>
+      </c>
+      <c r="B14">
+        <v>75.795419692993093</v>
+      </c>
+      <c r="D14">
+        <v>25000</v>
+      </c>
+      <c r="E14">
+        <v>1.26325699488321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>27000</v>
+      </c>
+      <c r="B15">
+        <v>78.900227308273301</v>
+      </c>
+      <c r="D15">
+        <v>27000</v>
+      </c>
+      <c r="E15">
+        <v>1.31500378847122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>29000</v>
+      </c>
+      <c r="B16">
+        <v>84.666756868362398</v>
+      </c>
+      <c r="D16">
+        <v>29000</v>
+      </c>
+      <c r="E16">
+        <v>1.4111126144727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>31000</v>
+      </c>
+      <c r="B17">
+        <v>90.362340450286794</v>
+      </c>
+      <c r="D17">
+        <v>31000</v>
+      </c>
+      <c r="E17">
+        <v>1.50603900750478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>33000</v>
+      </c>
+      <c r="B18">
+        <v>96.161025524139404</v>
+      </c>
+      <c r="D18">
+        <v>33000</v>
+      </c>
+      <c r="E18">
+        <v>1.6026837587356499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>35000</v>
+      </c>
+      <c r="B19">
+        <v>107.590584516525</v>
+      </c>
+      <c r="D19">
+        <v>35000</v>
+      </c>
+      <c r="E19">
+        <v>1.79317640860875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>37000</v>
+      </c>
+      <c r="B20">
+        <v>107.85544586181599</v>
+      </c>
+      <c r="D20">
+        <v>37000</v>
+      </c>
+      <c r="E20">
+        <v>1.7975907643636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>39000</v>
+      </c>
+      <c r="B21">
+        <v>118.04157114028899</v>
+      </c>
+      <c r="D21">
+        <v>39000</v>
+      </c>
+      <c r="E21">
+        <v>1.9673595190048201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>41000</v>
+      </c>
+      <c r="B22">
+        <v>126.80536866188</v>
+      </c>
+      <c r="D22">
+        <v>41000</v>
+      </c>
+      <c r="E22">
+        <v>2.1134228110313402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>43000</v>
+      </c>
+      <c r="B23">
+        <v>132.489974975585</v>
+      </c>
+      <c r="D23">
+        <v>43000</v>
+      </c>
+      <c r="E23">
+        <v>2.20816624959309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>45000</v>
+      </c>
+      <c r="B24">
+        <v>154.50859832763601</v>
+      </c>
+      <c r="D24">
+        <v>45000</v>
+      </c>
+      <c r="E24">
+        <v>2.5751433054606099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>47000</v>
+      </c>
+      <c r="B25">
+        <v>162.69979524612401</v>
+      </c>
+      <c r="D25">
+        <v>47000</v>
+      </c>
+      <c r="E25">
+        <v>2.7116632541020702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>49000</v>
+      </c>
+      <c r="B26">
+        <v>178.53848242759699</v>
+      </c>
+      <c r="D26">
+        <v>49000</v>
+      </c>
+      <c r="E26">
+        <v>2.9756413737932799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>51000</v>
+      </c>
+      <c r="B27">
+        <v>225.20103120803799</v>
+      </c>
+      <c r="D27">
+        <v>51000</v>
+      </c>
+      <c r="E27">
+        <v>3.7533505201339699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>53000</v>
+      </c>
+      <c r="B28">
+        <v>231.502291202545</v>
+      </c>
+      <c r="D28">
+        <v>53000</v>
+      </c>
+      <c r="E28">
+        <v>3.85837152004241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>55000</v>
+      </c>
+      <c r="B29">
+        <v>178.55170321464499</v>
+      </c>
+      <c r="D29">
+        <v>55000</v>
+      </c>
+      <c r="E29">
+        <v>2.9758617202440898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>57000</v>
+      </c>
+      <c r="B30">
+        <v>176.78735017776401</v>
+      </c>
+      <c r="D30">
+        <v>57000</v>
+      </c>
+      <c r="E30">
+        <v>2.9464558362960802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>59000</v>
+      </c>
+      <c r="B31">
+        <v>207.25944352149901</v>
+      </c>
+      <c r="D31">
+        <v>59000</v>
+      </c>
+      <c r="E31">
+        <v>3.4543240586916601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>61000</v>
+      </c>
+      <c r="B32">
+        <v>676.36924672126702</v>
+      </c>
+      <c r="D32">
+        <v>61000</v>
+      </c>
+      <c r="E32">
+        <v>11.2728207786877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>63000</v>
+      </c>
+      <c r="B33">
+        <v>684.40985465049698</v>
+      </c>
+      <c r="D33">
+        <v>63000</v>
+      </c>
+      <c r="E33">
+        <v>11.406830910841601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>65000</v>
+      </c>
+      <c r="B34">
+        <v>461.95437240600501</v>
+      </c>
+      <c r="D34">
+        <v>65000</v>
+      </c>
+      <c r="E34">
+        <v>7.6992395401000904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>67000</v>
+      </c>
+      <c r="B35" s="1">
+        <v>734.44385933876003</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
+        <v>67000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>12.240730988979299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>69000</v>
+      </c>
+      <c r="B36">
+        <v>196.04220056533799</v>
+      </c>
+      <c r="D36">
+        <v>69000</v>
+      </c>
+      <c r="E36">
+        <v>3.2673700094222999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>71000</v>
+      </c>
+      <c r="B37">
+        <v>205.39107012748701</v>
+      </c>
+      <c r="D37">
+        <v>71000</v>
+      </c>
+      <c r="E37">
+        <v>3.42318450212478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>73000</v>
+      </c>
+      <c r="B38">
+        <v>207.87056589126499</v>
+      </c>
+      <c r="D38">
+        <v>73000</v>
+      </c>
+      <c r="E38">
+        <v>3.46450943152109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>75000</v>
+      </c>
+      <c r="B39">
+        <v>211.89837121963501</v>
+      </c>
+      <c r="D39">
+        <v>75000</v>
+      </c>
+      <c r="E39">
+        <v>3.5316395203272499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>77000</v>
+      </c>
+      <c r="B40">
+        <v>219.65492224693199</v>
+      </c>
+      <c r="D40">
+        <v>77000</v>
+      </c>
+      <c r="E40">
+        <v>3.66091537078221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>79000</v>
+      </c>
+      <c r="B41">
+        <v>229.09881067276001</v>
+      </c>
+      <c r="D41">
+        <v>79000</v>
+      </c>
+      <c r="E41">
+        <v>3.81831351121266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>81000</v>
+      </c>
+      <c r="B42">
+        <v>235.474085569381</v>
+      </c>
+      <c r="D42">
+        <v>81000</v>
+      </c>
+      <c r="E42">
+        <v>3.9245680928230202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>83000</v>
+      </c>
+      <c r="B43">
+        <v>279.71893262863102</v>
+      </c>
+      <c r="D43">
+        <v>83000</v>
+      </c>
+      <c r="E43">
+        <v>4.6619822104771904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>85000</v>
+      </c>
+      <c r="B44">
+        <v>284.78794622421202</v>
+      </c>
+      <c r="D44">
+        <v>85000</v>
+      </c>
+      <c r="E44">
+        <v>4.7464657704035398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>87000</v>
+      </c>
+      <c r="B45">
+        <v>292.26644158363302</v>
+      </c>
+      <c r="D45">
+        <v>87000</v>
+      </c>
+      <c r="E45">
+        <v>4.8711073597272199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>89000</v>
+      </c>
+      <c r="B46">
+        <v>315.47408223152098</v>
+      </c>
+      <c r="D46">
+        <v>89000</v>
+      </c>
+      <c r="E46">
+        <v>5.2579013705253601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>91000</v>
+      </c>
+      <c r="B47">
+        <v>329.618910551071</v>
+      </c>
+      <c r="D47">
+        <v>91000</v>
+      </c>
+      <c r="E47">
+        <v>5.4936485091845197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>93000</v>
+      </c>
+      <c r="B48">
+        <v>334.10580778121903</v>
+      </c>
+      <c r="D48">
+        <v>93000</v>
+      </c>
+      <c r="E48">
+        <v>5.5684301296869902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>95000</v>
+      </c>
+      <c r="B49">
+        <v>341.038194179534</v>
+      </c>
+      <c r="D49">
+        <v>95000</v>
+      </c>
+      <c r="E49">
+        <v>5.6839699029922404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>97000</v>
+      </c>
+      <c r="B50">
+        <v>334.77394151687599</v>
+      </c>
+      <c r="D50">
+        <v>97000</v>
+      </c>
+      <c r="E50">
+        <v>5.5795656919479297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>99000</v>
+      </c>
+      <c r="B51">
+        <v>332.92457151412901</v>
+      </c>
+      <c r="D51">
+        <v>99000</v>
+      </c>
+      <c r="E51">
+        <v>5.5487428585688203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>101000</v>
+      </c>
+      <c r="B52">
+        <v>369.294844388961</v>
+      </c>
+      <c r="D52">
+        <v>101000</v>
+      </c>
+      <c r="E52">
+        <v>6.1549140731493601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>103000</v>
+      </c>
+      <c r="B53">
+        <v>379.75993657112099</v>
+      </c>
+      <c r="D53">
+        <v>103000</v>
+      </c>
+      <c r="E53">
+        <v>6.3293322761853501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>105000</v>
+      </c>
+      <c r="B54">
+        <v>321.68432402610699</v>
+      </c>
+      <c r="D54">
+        <v>105000</v>
+      </c>
+      <c r="E54">
+        <v>5.3614054004351299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>107000</v>
+      </c>
+      <c r="B55">
+        <v>310.41307020187298</v>
+      </c>
+      <c r="D55">
+        <v>107000</v>
+      </c>
+      <c r="E55">
+        <v>5.1735511700312298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>109000</v>
+      </c>
+      <c r="B56">
+        <v>319.20682859420702</v>
+      </c>
+      <c r="D56">
+        <v>109000</v>
+      </c>
+      <c r="E56">
+        <v>5.3201138099034599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>111000</v>
+      </c>
+      <c r="B57">
+        <v>323.91076922416602</v>
+      </c>
+      <c r="D57">
+        <v>111000</v>
+      </c>
+      <c r="E57">
+        <v>5.3985128204027797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>113000</v>
+      </c>
+      <c r="B58">
+        <v>329.99898672103802</v>
+      </c>
+      <c r="D58">
+        <v>113000</v>
+      </c>
+      <c r="E58">
+        <v>5.4999831120173104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>115000</v>
+      </c>
+      <c r="B59">
+        <v>342.009388208389</v>
+      </c>
+      <c r="D59">
+        <v>115000</v>
+      </c>
+      <c r="E59">
+        <v>5.7001564701398202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>117000</v>
+      </c>
+      <c r="B60">
+        <v>347.44447493553099</v>
+      </c>
+      <c r="D60">
+        <v>117000</v>
+      </c>
+      <c r="E60">
+        <v>5.7907412489255199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>119000</v>
+      </c>
+      <c r="B61">
+        <v>353.82475090026799</v>
+      </c>
+      <c r="D61">
+        <v>119000</v>
+      </c>
+      <c r="E61">
+        <v>5.8970791816711401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>121000</v>
+      </c>
+      <c r="B62">
+        <v>361.49928545951798</v>
+      </c>
+      <c r="D62">
+        <v>121000</v>
+      </c>
+      <c r="E62">
+        <v>6.02498809099197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>123000</v>
+      </c>
+      <c r="B63">
+        <v>369.519889116287</v>
+      </c>
+      <c r="D63">
+        <v>123000</v>
+      </c>
+      <c r="E63">
+        <v>6.1586648186047803</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>125000</v>
+      </c>
+      <c r="B64">
+        <v>380.15701627731301</v>
+      </c>
+      <c r="D64">
+        <v>125000</v>
+      </c>
+      <c r="E64">
+        <v>6.3359502712885503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>127000</v>
+      </c>
+      <c r="B65">
+        <v>391.04219293594298</v>
+      </c>
+      <c r="D65">
+        <v>127000</v>
+      </c>
+      <c r="E65">
+        <v>6.5173698822657196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>129000</v>
+      </c>
+      <c r="B66">
+        <v>391.12921023368801</v>
+      </c>
+      <c r="D66">
+        <v>129000</v>
+      </c>
+      <c r="E66">
+        <v>6.5188201705614697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>131000</v>
+      </c>
+      <c r="B67">
+        <v>394.54389286041197</v>
+      </c>
+      <c r="D67">
+        <v>131000</v>
+      </c>
+      <c r="E67">
+        <v>6.5757315476735396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>133000</v>
+      </c>
+      <c r="B68">
+        <v>401.460276126861</v>
+      </c>
+      <c r="D68">
+        <v>133000</v>
+      </c>
+      <c r="E68">
+        <v>6.6910046021143597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>135000</v>
+      </c>
+      <c r="B69">
+        <v>421.180219173431</v>
+      </c>
+      <c r="D69">
+        <v>135000</v>
+      </c>
+      <c r="E69">
+        <v>7.0196703195571901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>137000</v>
+      </c>
+      <c r="B70">
+        <v>419.71992731094298</v>
+      </c>
+      <c r="D70">
+        <v>137000</v>
+      </c>
+      <c r="E70">
+        <v>6.9953321218490601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>139000</v>
+      </c>
+      <c r="B71">
+        <v>425.48508000373801</v>
+      </c>
+      <c r="D71">
+        <v>139000</v>
+      </c>
+      <c r="E71">
+        <v>7.0914180000623004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>141000</v>
+      </c>
+      <c r="B72">
+        <v>432.40746402740399</v>
+      </c>
+      <c r="D72">
+        <v>141000</v>
+      </c>
+      <c r="E72">
+        <v>7.2067910671234099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>143000</v>
+      </c>
+      <c r="B73">
+        <v>440.56809592246998</v>
+      </c>
+      <c r="D73">
+        <v>143000</v>
+      </c>
+      <c r="E73">
+        <v>7.3428015987078297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>145000</v>
+      </c>
+      <c r="B74">
+        <v>447.73452901840199</v>
+      </c>
+      <c r="D74">
+        <v>145000</v>
+      </c>
+      <c r="E74">
+        <v>7.4622421503067002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>147000</v>
+      </c>
+      <c r="B75">
+        <v>455.16201424598597</v>
+      </c>
+      <c r="D75">
+        <v>147000</v>
+      </c>
+      <c r="E75">
+        <v>7.5860335707664399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>149000</v>
+      </c>
+      <c r="B76">
+        <v>464.99798083305302</v>
+      </c>
+      <c r="D76">
+        <v>149000</v>
+      </c>
+      <c r="E76">
+        <v>7.7499663472175602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>151000</v>
+      </c>
+      <c r="B77">
+        <v>469.052791833877</v>
+      </c>
+      <c r="D77">
+        <v>151000</v>
+      </c>
+      <c r="E77">
+        <v>7.8175465305646199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>153000</v>
+      </c>
+      <c r="B78">
+        <v>481.61030292510901</v>
+      </c>
+      <c r="D78">
+        <v>153000</v>
+      </c>
+      <c r="E78">
+        <v>8.0268383820851597</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>155000</v>
+      </c>
+      <c r="B79">
+        <v>487.04238915443398</v>
+      </c>
+      <c r="D79">
+        <v>155000</v>
+      </c>
+      <c r="E79">
+        <v>8.1173731525739008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>157000</v>
+      </c>
+      <c r="B80">
+        <v>501.56129217147799</v>
+      </c>
+      <c r="D80">
+        <v>157000</v>
+      </c>
+      <c r="E80">
+        <v>8.3593548695246298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>159000</v>
+      </c>
+      <c r="B81">
+        <v>505.72312450408901</v>
+      </c>
+      <c r="D81">
+        <v>159000</v>
+      </c>
+      <c r="E81">
+        <v>8.4287187417348193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>161000</v>
+      </c>
+      <c r="B82">
+        <v>518.18861699104298</v>
+      </c>
+      <c r="D82">
+        <v>161000</v>
+      </c>
+      <c r="E82">
+        <v>8.6364769498507101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>163000</v>
+      </c>
+      <c r="B83">
+        <v>515.24502849578801</v>
+      </c>
+      <c r="D83">
+        <v>163000</v>
+      </c>
+      <c r="E83">
+        <v>8.58741714159647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>165000</v>
+      </c>
+      <c r="B84">
+        <v>532.235425949096</v>
+      </c>
+      <c r="D84">
+        <v>165000</v>
+      </c>
+      <c r="E84">
+        <v>8.8705904324849403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>167000</v>
+      </c>
+      <c r="B85">
+        <v>541.18921613693203</v>
+      </c>
+      <c r="D85">
+        <v>167000</v>
+      </c>
+      <c r="E85">
+        <v>9.0198202689488696</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>169000</v>
+      </c>
+      <c r="B86">
+        <v>543.83374500274601</v>
+      </c>
+      <c r="D86">
+        <v>169000</v>
+      </c>
+      <c r="E86">
+        <v>9.06389575004577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>171000</v>
+      </c>
+      <c r="B87">
+        <v>552.22642326354901</v>
+      </c>
+      <c r="D87">
+        <v>171000</v>
+      </c>
+      <c r="E87">
+        <v>9.2037737210591608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>173000</v>
+      </c>
+      <c r="B88">
+        <v>561.59329628944397</v>
+      </c>
+      <c r="D88">
+        <v>173000</v>
+      </c>
+      <c r="E88">
+        <v>9.3598882714907301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>175000</v>
+      </c>
+      <c r="B89">
+        <v>569.36384987831104</v>
+      </c>
+      <c r="D89">
+        <v>175000</v>
+      </c>
+      <c r="E89">
+        <v>9.4893974979718507</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>177000</v>
+      </c>
+      <c r="B90">
+        <v>575.75112724304199</v>
+      </c>
+      <c r="D90">
+        <v>177000</v>
+      </c>
+      <c r="E90">
+        <v>9.5958521207173604</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>179000</v>
+      </c>
+      <c r="B91">
+        <v>581.50027680397</v>
+      </c>
+      <c r="D91">
+        <v>179000</v>
+      </c>
+      <c r="E91">
+        <v>9.6916712800661706</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>181000</v>
+      </c>
+      <c r="B92">
+        <v>588.89575576782204</v>
+      </c>
+      <c r="D92">
+        <v>181000</v>
+      </c>
+      <c r="E92">
+        <v>9.8149292627970297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>183000</v>
+      </c>
+      <c r="B93">
+        <v>588.91075873374905</v>
+      </c>
+      <c r="D93">
+        <v>183000</v>
+      </c>
+      <c r="E93">
+        <v>9.8151793122291497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>185000</v>
+      </c>
+      <c r="B94">
+        <v>599.36584925651505</v>
+      </c>
+      <c r="D94">
+        <v>185000</v>
+      </c>
+      <c r="E94">
+        <v>9.9894308209419194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>187000</v>
+      </c>
+      <c r="B95">
+        <v>610.28703284263599</v>
+      </c>
+      <c r="D95">
+        <v>187000</v>
+      </c>
+      <c r="E95">
+        <v>10.1714505473772</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>189000</v>
+      </c>
+      <c r="B96">
+        <v>684.33784031867901</v>
+      </c>
+      <c r="D96">
+        <v>189000</v>
+      </c>
+      <c r="E96">
+        <v>11.405630671977899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>191000</v>
+      </c>
+      <c r="B97">
+        <v>737.15040063857998</v>
+      </c>
+      <c r="D97">
+        <v>191000</v>
+      </c>
+      <c r="E97">
+        <v>12.285840010643</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>193000</v>
+      </c>
+      <c r="B98">
+        <v>763.381645917892</v>
+      </c>
+      <c r="D98">
+        <v>193000</v>
+      </c>
+      <c r="E98">
+        <v>12.7230274319648</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>195000</v>
+      </c>
+      <c r="B99">
+        <v>754.47586512565601</v>
+      </c>
+      <c r="D99">
+        <v>195000</v>
+      </c>
+      <c r="E99">
+        <v>12.574597752094199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>197000</v>
+      </c>
+      <c r="B100">
+        <v>809.09778714179902</v>
+      </c>
+      <c r="D100">
+        <v>197000</v>
+      </c>
+      <c r="E100">
+        <v>13.484963119029899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>199000</v>
+      </c>
+      <c r="B101">
+        <v>647.89555311203003</v>
+      </c>
+      <c r="D101">
+        <v>199000</v>
+      </c>
+      <c r="E101">
+        <v>10.798259218533801</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>201000</v>
+      </c>
+      <c r="B102">
+        <v>659.59189200401295</v>
+      </c>
+      <c r="D102">
+        <v>201000</v>
+      </c>
+      <c r="E102">
+        <v>10.9931982000668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>203000</v>
+      </c>
+      <c r="B103">
+        <v>659.31783699989296</v>
+      </c>
+      <c r="D103">
+        <v>203000</v>
+      </c>
+      <c r="E103">
+        <v>10.9886306166648</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>205000</v>
+      </c>
+      <c r="B104">
+        <v>659.23081970214798</v>
+      </c>
+      <c r="D104">
+        <v>205000</v>
+      </c>
+      <c r="E104">
+        <v>10.987180328369099</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>207000</v>
+      </c>
+      <c r="B105">
+        <v>676.94136118888798</v>
+      </c>
+      <c r="D105">
+        <v>207000</v>
+      </c>
+      <c r="E105">
+        <v>11.282356019814801</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>209000</v>
+      </c>
+      <c r="B106">
+        <v>677.89955282211304</v>
+      </c>
+      <c r="D106">
+        <v>209000</v>
+      </c>
+      <c r="E106">
+        <v>11.2983258803685</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>211000</v>
+      </c>
+      <c r="B107">
+        <v>680.628098487854</v>
+      </c>
+      <c r="D107">
+        <v>211000</v>
+      </c>
+      <c r="E107">
+        <v>11.3438016414642</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>213000</v>
+      </c>
+      <c r="B108">
+        <v>698.97276663780201</v>
+      </c>
+      <c r="D108">
+        <v>213000</v>
+      </c>
+      <c r="E108">
+        <v>11.64954611063</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>215000</v>
+      </c>
+      <c r="B109">
+        <v>700.99717140197697</v>
+      </c>
+      <c r="D109">
+        <v>215000</v>
+      </c>
+      <c r="E109">
+        <v>11.6832861900329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>217000</v>
+      </c>
+      <c r="B110">
+        <v>758.22861552238396</v>
+      </c>
+      <c r="D110">
+        <v>217000</v>
+      </c>
+      <c r="E110">
+        <v>12.637143592039701</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>219000</v>
+      </c>
+      <c r="B111">
+        <v>773.80573010444596</v>
+      </c>
+      <c r="D111">
+        <v>219000</v>
+      </c>
+      <c r="E111">
+        <v>12.896762168407401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>221000</v>
+      </c>
+      <c r="B112">
+        <v>777.80553007125798</v>
+      </c>
+      <c r="D112">
+        <v>221000</v>
+      </c>
+      <c r="E112">
+        <v>12.963425501187601</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>223000</v>
+      </c>
+      <c r="B113">
+        <v>947.54647135734501</v>
+      </c>
+      <c r="D113">
+        <v>223000</v>
+      </c>
+      <c r="E113">
+        <v>15.792441189289001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>225000</v>
+      </c>
+      <c r="B114">
+        <v>1041.2882158756199</v>
+      </c>
+      <c r="D114">
+        <v>225000</v>
+      </c>
+      <c r="E114">
+        <v>17.354803597926999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>227000</v>
+      </c>
+      <c r="B115">
+        <v>1122.84952521324</v>
+      </c>
+      <c r="D115">
+        <v>227000</v>
+      </c>
+      <c r="E115">
+        <v>18.714158753553999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>229000</v>
+      </c>
+      <c r="B116">
+        <v>1067.2624099254599</v>
+      </c>
+      <c r="D116">
+        <v>229000</v>
+      </c>
+      <c r="E116">
+        <v>17.787706832091001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>4.07077836990356</v>
+        <v>3.2071833610534601</v>
       </c>
       <c r="C2">
-        <v>6.7846306165059406E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.3453056017557697E-2</v>
+      </c>
+      <c r="D2">
+        <v>153284608</v>
+      </c>
+      <c r="E2">
+        <f>D2/1024/1024/1024</f>
+        <v>0.14275741577148438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3000</v>
       </c>
       <c r="B3">
-        <v>10.5318393707275</v>
+        <v>9.2805306911468506</v>
       </c>
       <c r="C3">
-        <v>0.17553065617879199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.15467551151911399</v>
+      </c>
+      <c r="D3">
+        <v>252506112</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">D3/1024/1024</f>
+        <v>240.80859375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5000</v>
       </c>
       <c r="B4">
-        <v>14.304707288742</v>
+        <v>16.497943639755199</v>
       </c>
       <c r="C4">
-        <v>0.23841178814570099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.27496572732925401</v>
+      </c>
+      <c r="D4">
+        <v>345530368</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>329.5234375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7000</v>
       </c>
       <c r="B5">
-        <v>20.655801296234099</v>
+        <v>20.529174327850299</v>
       </c>
       <c r="C5">
-        <v>0.34426335493723498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.34215290546417199</v>
+      </c>
+      <c r="D5">
+        <v>411910144</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>392.828125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9000</v>
       </c>
       <c r="B6">
-        <v>27.217832088470399</v>
+        <v>28.8616509437561</v>
       </c>
       <c r="C6">
-        <v>0.45363053480784099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.481027515729268</v>
+      </c>
+      <c r="D6">
+        <v>490463232</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>467.7421875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11000</v>
       </c>
       <c r="B7">
-        <v>33.337995529174798</v>
+        <v>38.748216390609699</v>
       </c>
       <c r="C7">
-        <v>0.55563325881958003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.645803606510162</v>
+      </c>
+      <c r="D7">
+        <v>543887360</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>518.69140625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13000</v>
       </c>
       <c r="B8">
-        <v>39.322199821472097</v>
+        <v>49.646839618682797</v>
       </c>
       <c r="C8">
-        <v>0.65536999702453602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.82744732697804702</v>
+      </c>
+      <c r="D8">
+        <v>598401024</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>570.6796875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15000</v>
       </c>
       <c r="B9">
-        <v>45.7432730197906</v>
+        <v>57.107266426086397</v>
       </c>
       <c r="C9">
-        <v>0.762387883663177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.95178777376810697</v>
+      </c>
+      <c r="D9">
+        <v>672292864</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>641.1484375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17000</v>
       </c>
       <c r="B10">
-        <v>50.720486164093003</v>
+        <v>68.350909471511798</v>
       </c>
       <c r="C10">
-        <v>0.84534143606821699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1391818245251899</v>
+      </c>
+      <c r="D10">
+        <v>722071552</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>688.62109375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19000</v>
       </c>
       <c r="B11">
-        <v>56.384361028671201</v>
+        <v>68.198900699615393</v>
       </c>
       <c r="C11">
-        <v>0.93973935047785395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.13664834499359</v>
+      </c>
+      <c r="D11">
+        <v>768925696</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>733.3046875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21000</v>
       </c>
       <c r="B12">
-        <v>62.092790126800502</v>
+        <v>91.843253135681096</v>
       </c>
       <c r="C12">
-        <v>1.0348798354466699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5307208855946799</v>
+      </c>
+      <c r="D12">
+        <v>834330624</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>795.6796875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23000</v>
       </c>
       <c r="B13">
-        <v>67.360263347625704</v>
+        <v>102.339853525161</v>
       </c>
       <c r="C13">
-        <v>1.12267105579376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7056642254193599</v>
+      </c>
+      <c r="D13">
+        <v>880582656</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>839.7890625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25000</v>
       </c>
       <c r="B14">
-        <v>75.795419692993093</v>
+        <v>94.518406152725206</v>
       </c>
       <c r="C14">
-        <v>1.26325699488321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5753067692120799</v>
+      </c>
+      <c r="D14">
+        <v>955187200</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>910.9375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>27000</v>
       </c>
       <c r="B15">
-        <v>78.900227308273301</v>
+        <v>107.70616030693</v>
       </c>
       <c r="C15">
-        <v>1.31500378847122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7951026717821701</v>
+      </c>
+      <c r="D15">
+        <v>993341440</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>947.32421875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29000</v>
       </c>
       <c r="B16">
-        <v>84.666756868362398</v>
+        <v>93.5563511848449</v>
       </c>
       <c r="C16">
-        <v>1.4111126144727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.55927251974741</v>
+      </c>
+      <c r="D16">
+        <v>1036095488</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>988.09765625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31000</v>
       </c>
       <c r="B17">
-        <v>90.362340450286794</v>
+        <v>142.60115623474101</v>
       </c>
       <c r="C17">
-        <v>1.50603900750478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3766859372456799</v>
+      </c>
+      <c r="D17">
+        <v>1100230656</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1049.26171875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33000</v>
       </c>
       <c r="B18">
-        <v>96.161025524139404</v>
+        <v>153.902802705764</v>
       </c>
       <c r="C18">
-        <v>1.6026837587356499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.56504671176274</v>
+      </c>
+      <c r="D18">
+        <v>1141436416</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1088.55859375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35000</v>
       </c>
       <c r="B19">
-        <v>107.590584516525</v>
+        <v>162.291282653808</v>
       </c>
       <c r="C19">
-        <v>1.79317640860875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.70485471089681</v>
+      </c>
+      <c r="D19">
+        <v>1201844224</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1146.16796875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>37000</v>
       </c>
       <c r="B20">
-        <v>107.85544586181599</v>
+        <v>116.846683263778</v>
       </c>
       <c r="C20">
-        <v>1.7975907643636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.94744472106297</v>
+      </c>
+      <c r="D20">
+        <v>1244278784</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1186.63671875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>39000</v>
       </c>
       <c r="B21">
-        <v>118.04157114028899</v>
+        <v>111.97440457344</v>
       </c>
       <c r="C21">
-        <v>1.9673595190048201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8662400762239999</v>
+      </c>
+      <c r="D21">
+        <v>1285500928</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1225.94921875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>41000</v>
       </c>
       <c r="B22">
-        <v>126.80536866188</v>
+        <v>119.404829502105</v>
       </c>
       <c r="C22">
-        <v>2.1134228110313402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.99008049170176</v>
+      </c>
+      <c r="D22">
+        <v>1347125248</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1284.71875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>43000</v>
       </c>
       <c r="B23">
-        <v>132.489974975585</v>
+        <v>124.59212636947601</v>
       </c>
       <c r="C23">
-        <v>2.20816624959309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0765354394912698</v>
+      </c>
+      <c r="D23">
+        <v>1383497728</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1319.40625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>45000</v>
       </c>
       <c r="B24">
-        <v>154.50859832763601</v>
+        <v>128.685360193252</v>
       </c>
       <c r="C24">
-        <v>2.5751433054606099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1447560032208699</v>
+      </c>
+      <c r="D24">
+        <v>1445732352</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1378.7578125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>47000</v>
       </c>
       <c r="B25">
-        <v>162.69979524612401</v>
+        <v>134.04966711997901</v>
       </c>
       <c r="C25">
-        <v>2.7116632541020702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2341611186663299</v>
+      </c>
+      <c r="D25">
+        <v>1484693504</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1415.9140625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>49000</v>
       </c>
       <c r="B26">
-        <v>178.53848242759699</v>
+        <v>140.303024768829</v>
       </c>
       <c r="C26">
-        <v>2.9756413737932799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3383837461471502</v>
+      </c>
+      <c r="D26">
+        <v>1534398464</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1463.31640625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>51000</v>
       </c>
       <c r="B27">
-        <v>225.20103120803799</v>
+        <v>150.69461917877101</v>
       </c>
       <c r="C27">
-        <v>3.7533505201339699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5115769863128601</v>
+      </c>
+      <c r="D27">
+        <v>1592999936</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1519.203125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>53000</v>
       </c>
       <c r="B28">
-        <v>231.502291202545</v>
+        <v>153.82579827308601</v>
       </c>
       <c r="C28">
-        <v>3.85837152004241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5637633045514399</v>
+      </c>
+      <c r="D28">
+        <v>1628377088</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1552.94140625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55000</v>
       </c>
       <c r="B29">
-        <v>178.55170321464499</v>
+        <v>160.322169780731</v>
       </c>
       <c r="C29">
-        <v>2.9758617202440898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6720361630121801</v>
+      </c>
+      <c r="D29">
+        <v>1664151552</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1587.05859375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>57000</v>
       </c>
       <c r="B30">
-        <v>176.78735017776401</v>
+        <v>160.56618380546499</v>
       </c>
       <c r="C30">
-        <v>2.9464558362960802</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6761030634244198</v>
+      </c>
+      <c r="D30">
+        <v>1719898112</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1640.22265625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>59000</v>
       </c>
       <c r="B31">
-        <v>207.25944352149901</v>
+        <v>166.749537467956</v>
       </c>
       <c r="C31">
-        <v>3.4543240586916601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+        <v>2.7791589577992699</v>
+      </c>
+      <c r="D31">
+        <v>1756106752</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1674.75390625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>61000</v>
       </c>
-      <c r="B32" s="1">
-        <v>676.36924672126702</v>
-      </c>
-      <c r="C32" s="1">
-        <v>11.2728207786877</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="B32">
+        <v>173.39291763305599</v>
+      </c>
+      <c r="C32">
+        <v>2.88988196055094</v>
+      </c>
+      <c r="D32">
+        <v>1811173376</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1727.26953125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>63000</v>
       </c>
-      <c r="B33" s="1">
-        <v>684.40985465049698</v>
-      </c>
-      <c r="C33" s="1">
-        <v>11.406830910841601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>179.42226243019101</v>
+      </c>
+      <c r="C33">
+        <v>2.99037104050318</v>
+      </c>
+      <c r="D33">
+        <v>1846685696</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1761.13671875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>65000</v>
       </c>
       <c r="B34">
-        <v>461.95437240600501</v>
+        <v>185.22759437561001</v>
       </c>
       <c r="C34">
-        <v>7.6992395401000904</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+        <v>3.08712657292683</v>
+      </c>
+      <c r="D34">
+        <v>1864740864</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1778.35546875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>67000</v>
       </c>
-      <c r="B35" s="1">
-        <v>734.44385933876003</v>
-      </c>
-      <c r="C35" s="1">
-        <v>12.240730988979299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>190.678906202316</v>
+      </c>
+      <c r="C35">
+        <v>3.1779817700385999</v>
+      </c>
+      <c r="D35">
+        <v>1937051648</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1847.31640625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>69000</v>
       </c>
       <c r="B36">
-        <v>196.04220056533799</v>
+        <v>196.895261764526</v>
       </c>
       <c r="C36">
-        <v>3.2673700094222999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2815876960754302</v>
+      </c>
+      <c r="D36">
+        <v>1972367360</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1880.99609375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>71000</v>
       </c>
       <c r="B37">
-        <v>205.39107012748701</v>
+        <v>202.70159387588501</v>
       </c>
       <c r="C37">
-        <v>3.42318450212478</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3783598979314098</v>
+      </c>
+      <c r="D37">
+        <v>2025095168</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1931.28125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>73000</v>
       </c>
       <c r="B38">
-        <v>207.87056589126499</v>
+        <v>207.153848409652</v>
       </c>
       <c r="C38">
-        <v>3.46450943152109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4525641401608702</v>
+      </c>
+      <c r="D38">
+        <v>2056376320</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1961.11328125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>75000</v>
       </c>
       <c r="B39">
-        <v>211.89837121963501</v>
+        <v>211.82511568069401</v>
       </c>
       <c r="C39">
-        <v>3.5316395203272499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.53041859467824</v>
+      </c>
+      <c r="D39">
+        <v>2092290048</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1995.36328125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>77000</v>
       </c>
       <c r="B40">
-        <v>219.65492224693199</v>
+        <v>222.83374524116499</v>
       </c>
       <c r="C40">
-        <v>3.66091537078221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.71389575401941</v>
+      </c>
+      <c r="D40">
+        <v>2148753408</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>2049.2109375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>79000</v>
       </c>
       <c r="B41">
-        <v>229.09881067276001</v>
+        <v>229.34911799430799</v>
       </c>
       <c r="C41">
-        <v>3.81831351121266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.8224852999051402</v>
+      </c>
+      <c r="D41">
+        <v>2182983680</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>2081.85546875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>81000</v>
       </c>
       <c r="B42">
-        <v>235.474085569381</v>
+        <v>230.939208984375</v>
       </c>
       <c r="C42">
-        <v>3.9245680928230202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.8489868164062502</v>
+      </c>
+      <c r="D42">
+        <v>2241196032</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>2137.37109375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>83000</v>
       </c>
       <c r="B43">
-        <v>279.71893262863102</v>
+        <v>241.04078674316401</v>
       </c>
       <c r="C43">
-        <v>4.6619822104771904</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.0173464457193999</v>
+      </c>
+      <c r="D43">
+        <v>2273054720</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>2167.75390625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>85000</v>
       </c>
       <c r="B44">
-        <v>284.78794622421202</v>
+        <v>246.02407169342001</v>
       </c>
       <c r="C44">
-        <v>4.7464657704035398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1004011948903401</v>
+      </c>
+      <c r="D44">
+        <v>2309398528</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>2202.4140625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>87000</v>
       </c>
       <c r="B45">
-        <v>292.26644158363302</v>
+        <v>254.889579057693</v>
       </c>
       <c r="C45">
-        <v>4.8711073597272199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.2481596509615498</v>
+      </c>
+      <c r="D45">
+        <v>2363088896</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>2253.6171875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>89000</v>
       </c>
       <c r="B46">
-        <v>315.47408223152098</v>
+        <v>257.84474778175297</v>
       </c>
       <c r="C46">
-        <v>5.2579013705253601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.2974124630292199</v>
+      </c>
+      <c r="D46">
+        <v>2403467264</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>2292.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>91000</v>
       </c>
       <c r="B47">
-        <v>329.618910551071</v>
+        <v>263.97509860992398</v>
       </c>
       <c r="C47">
-        <v>5.4936485091845197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.3995849768320703</v>
+      </c>
+      <c r="D47">
+        <v>2436083712</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>2323.23046875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>93000</v>
       </c>
       <c r="B48">
-        <v>334.10580778121903</v>
+        <v>269.08639073371802</v>
       </c>
       <c r="C48">
-        <v>5.5684301296869902</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.4847731788953098</v>
+      </c>
+      <c r="D48">
+        <v>2488946688</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>2373.64453125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>95000</v>
       </c>
       <c r="B49">
-        <v>341.038194179534</v>
+        <v>284.72528529167101</v>
       </c>
       <c r="C49">
-        <v>5.6839699029922404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.7454214215278601</v>
+      </c>
+      <c r="D49">
+        <v>2550599680</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>2432.44140625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>97000</v>
       </c>
       <c r="B50">
-        <v>334.77394151687599</v>
+        <v>282.29414629936201</v>
       </c>
       <c r="C50">
-        <v>5.5795656919479297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.7049024383226996</v>
+      </c>
+      <c r="D50">
+        <v>2602565632</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>99000</v>
       </c>
       <c r="B51">
-        <v>332.92457151412901</v>
+        <v>288.994529485702</v>
       </c>
       <c r="C51">
-        <v>5.5487428585688203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.8165754914283703</v>
+      </c>
+      <c r="D51">
+        <v>2633768960</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2511.7578125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>101000</v>
       </c>
       <c r="B52">
-        <v>369.294844388961</v>
+        <v>293.50578761100701</v>
       </c>
       <c r="C52">
-        <v>6.1549140731493601</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.8917631268501198</v>
+      </c>
+      <c r="D52">
+        <v>2665480192</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>103000</v>
       </c>
       <c r="B53">
-        <v>379.75993657112099</v>
+        <v>301.85826539993201</v>
       </c>
       <c r="C53">
-        <v>6.3293322761853501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.0309710899988804</v>
+      </c>
+      <c r="D53">
+        <v>2710196224</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>2584.64453125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>105000</v>
       </c>
       <c r="B54">
-        <v>321.68432402610699</v>
+        <v>306.27151775360102</v>
       </c>
       <c r="C54">
-        <v>5.3614054004351299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1045252958933496</v>
+      </c>
+      <c r="D54">
+        <v>2747604992</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>2620.3203125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>107000</v>
       </c>
       <c r="B55">
-        <v>310.41307020187298</v>
+        <v>312.65588283538801</v>
       </c>
       <c r="C55">
-        <v>5.1735511700312298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.2109313805898001</v>
+      </c>
+      <c r="D55">
+        <v>2799144960</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>2669.47265625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>109000</v>
       </c>
       <c r="B56">
-        <v>319.20682859420702</v>
+        <v>320.43132758140501</v>
       </c>
       <c r="C56">
-        <v>5.3201138099034599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.3405221263567597</v>
+      </c>
+      <c r="D56">
+        <v>2829619200</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>2698.53515625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>111000</v>
       </c>
       <c r="B57">
-        <v>323.91076922416602</v>
+        <v>325.83063650131197</v>
       </c>
       <c r="C57">
-        <v>5.3985128204027797</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.4305106083551999</v>
+      </c>
+      <c r="D57">
+        <v>2860617728</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>2728.09765625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>113000</v>
       </c>
       <c r="B58">
-        <v>329.99898672103802</v>
+        <v>330.38789725303599</v>
       </c>
       <c r="C58">
-        <v>5.4999831120173104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.5064649542172699</v>
+      </c>
+      <c r="D58">
+        <v>2915512320</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>2780.44921875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>115000</v>
       </c>
       <c r="B59">
-        <v>342.009388208389</v>
+        <v>341.09450960159302</v>
       </c>
       <c r="C59">
-        <v>5.7001564701398202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.6849084933598801</v>
+      </c>
+      <c r="D59">
+        <v>2947952640</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>2811.38671875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>117000</v>
       </c>
       <c r="B60">
-        <v>347.44447493553099</v>
+        <v>346.77083420753399</v>
       </c>
       <c r="C60">
-        <v>5.7907412489255199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.77951390345891</v>
+      </c>
+      <c r="D60">
+        <v>2996695040</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>2857.87109375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>119000</v>
       </c>
       <c r="B61">
-        <v>353.82475090026799</v>
+        <v>351.87812638282702</v>
       </c>
       <c r="C61">
-        <v>5.8970791816711401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.8646354397137896</v>
+      </c>
+      <c r="D61">
+        <v>3030478848</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>2890.08984375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>121000</v>
       </c>
       <c r="B62">
-        <v>361.49928545951798</v>
+        <v>378.41764426231299</v>
       </c>
       <c r="C62">
-        <v>6.02498809099197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3069607377052304</v>
+      </c>
+      <c r="D62">
+        <v>3061342208</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>2919.5234375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>123000</v>
       </c>
       <c r="B63">
-        <v>369.519889116287</v>
+        <v>371.33323907852099</v>
       </c>
       <c r="C63">
-        <v>6.1586648186047803</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.1888873179753601</v>
+      </c>
+      <c r="D63">
+        <v>3114016768</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>2969.7578125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>125000</v>
       </c>
       <c r="B64">
-        <v>380.15701627731301</v>
+        <v>380.16674447059597</v>
       </c>
       <c r="C64">
-        <v>6.3359502712885503</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3361124078432702</v>
+      </c>
+      <c r="D64">
+        <v>3144654848</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>2998.9765625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>127000</v>
       </c>
       <c r="B65">
-        <v>391.04219293594298</v>
+        <v>386.360098600387</v>
       </c>
       <c r="C65">
-        <v>6.5173698822657196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.4393349766731198</v>
+      </c>
+      <c r="D65">
+        <v>3198230528</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>3050.0703125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>129000</v>
       </c>
       <c r="B66">
-        <v>391.12921023368801</v>
+        <v>393.41550207137999</v>
       </c>
       <c r="C66">
-        <v>6.5188201705614697</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.5569250345230099</v>
+      </c>
+      <c r="D66">
+        <v>3225735168</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>3076.30078125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>131000</v>
       </c>
       <c r="B67">
-        <v>394.54389286041197</v>
+        <v>406.62625765800402</v>
       </c>
       <c r="C67">
-        <v>6.5757315476735396</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.7771042943000701</v>
+      </c>
+      <c r="D67">
+        <v>3293241344</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E87" si="1">D67/1024/1024</f>
+        <v>3140.6796875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>133000</v>
       </c>
       <c r="B68">
-        <v>401.460276126861</v>
+        <v>407.55431079864502</v>
       </c>
       <c r="C68">
-        <v>6.6910046021143597</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.7925718466440799</v>
+      </c>
+      <c r="D68">
+        <v>3324080128</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>3170.08984375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>135000</v>
       </c>
       <c r="B69">
-        <v>421.180219173431</v>
+        <v>417.88390159606899</v>
       </c>
       <c r="C69">
-        <v>7.0196703195571901</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.9647316932678196</v>
+      </c>
+      <c r="D69">
+        <v>3355951104</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>3200.484375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>137000</v>
       </c>
       <c r="B70">
-        <v>419.71992731094298</v>
+        <v>421.70712018013</v>
       </c>
       <c r="C70">
-        <v>6.9953321218490601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.02845200300216</v>
+      </c>
+      <c r="D70">
+        <v>3406774272</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>3248.953125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>139000</v>
       </c>
       <c r="B71">
-        <v>425.48508000373801</v>
+        <v>433.575798988342</v>
       </c>
       <c r="C71">
-        <v>7.0914180000623004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.2262633164723704</v>
+      </c>
+      <c r="D71">
+        <v>3438202880</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>3278.92578125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>141000</v>
       </c>
       <c r="B72">
-        <v>432.40746402740399</v>
+        <v>439.09611487388599</v>
       </c>
       <c r="C72">
-        <v>7.2067910671234099</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.3182685812314299</v>
+      </c>
+      <c r="D72">
+        <v>3468320768</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>3307.6484375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>143000</v>
       </c>
       <c r="B73">
-        <v>440.56809592246998</v>
+        <v>450.96579384803698</v>
       </c>
       <c r="C73">
-        <v>7.3428015987078297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.5160965641339601</v>
+      </c>
+      <c r="D73">
+        <v>3513151488</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>3350.40234375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>145000</v>
       </c>
       <c r="B74">
-        <v>447.73452901840199</v>
+        <v>459.12926077842701</v>
       </c>
       <c r="C74">
-        <v>7.4622421503067002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.6521543463071104</v>
+      </c>
+      <c r="D74">
+        <v>3550769152</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>3386.27734375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>147000</v>
       </c>
       <c r="B75">
-        <v>455.16201424598597</v>
+        <v>462.20643663406298</v>
       </c>
       <c r="C75">
-        <v>7.5860335707664399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.7034406105677196</v>
+      </c>
+      <c r="D75">
+        <v>3579658240</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>3413.828125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>149000</v>
       </c>
       <c r="B76">
-        <v>464.99798083305302</v>
+        <v>471.88199019432</v>
       </c>
       <c r="C76">
-        <v>7.7499663472175602</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.8646998365720098</v>
+      </c>
+      <c r="D76">
+        <v>3630895104</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>3462.69140625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>151000</v>
       </c>
       <c r="B77">
-        <v>469.052791833877</v>
+        <v>476.93627905845602</v>
       </c>
       <c r="C77">
-        <v>7.8175465305646199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9489379843075998</v>
+      </c>
+      <c r="D77">
+        <v>3659018240</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>3489.51171875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>153000</v>
       </c>
       <c r="B78">
-        <v>481.61030292510901</v>
+        <v>484.52571320533701</v>
       </c>
       <c r="C78">
-        <v>8.0268383820851597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.0754285534222898</v>
+      </c>
+      <c r="D78">
+        <v>3689545728</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>3518.625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>155000</v>
       </c>
       <c r="B79">
-        <v>487.04238915443398</v>
+        <v>494.69229483604403</v>
       </c>
       <c r="C79">
-        <v>8.1173731525739008</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.24487158060073</v>
+      </c>
+      <c r="D79">
+        <v>3731693568</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>3558.8203125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>157000</v>
       </c>
       <c r="B80">
-        <v>501.56129217147799</v>
+        <v>507.07800316810602</v>
       </c>
       <c r="C80">
-        <v>8.3593548695246298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.4513000528017592</v>
+      </c>
+      <c r="D80">
+        <v>3760570368</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>3586.359375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>159000</v>
       </c>
       <c r="B81">
-        <v>505.72312450408901</v>
+        <v>507.34001827239899</v>
       </c>
       <c r="C81">
-        <v>8.4287187417348193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.4556669712066608</v>
+      </c>
+      <c r="D81">
+        <v>3817193472</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>3640.359375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>161000</v>
       </c>
       <c r="B82">
-        <v>518.18861699104298</v>
+        <v>517.06157422065701</v>
       </c>
       <c r="C82">
-        <v>8.6364769498507101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.6176929036776198</v>
+      </c>
+      <c r="D82">
+        <v>3847700480</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>3669.453125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>163000</v>
       </c>
       <c r="B83">
-        <v>515.24502849578801</v>
+        <v>525.59406208992004</v>
       </c>
       <c r="C83">
-        <v>8.58741714159647</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.7599010348319997</v>
+      </c>
+      <c r="D83">
+        <v>3860996096</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>3682.1328125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>165000</v>
       </c>
       <c r="B84">
-        <v>532.235425949096</v>
+        <v>528.81724667549099</v>
       </c>
       <c r="C84">
-        <v>8.8705904324849403</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.8136207779248501</v>
+      </c>
+      <c r="D84">
+        <v>3926589440</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>3744.6875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>167000</v>
       </c>
       <c r="B85">
-        <v>541.18921613693203</v>
+        <v>546.82827687263398</v>
       </c>
       <c r="C85">
-        <v>9.0198202689488696</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.1138046145439109</v>
+      </c>
+      <c r="D85">
+        <v>3954913280</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>3771.69921875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>169000</v>
       </c>
       <c r="B86">
-        <v>543.83374500274601</v>
+        <v>549.03340291976895</v>
       </c>
       <c r="C86">
-        <v>9.06389575004577</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.1505567153294791</v>
+      </c>
+      <c r="D86">
+        <v>4004487168</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>3818.9765625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>171000</v>
       </c>
       <c r="B87">
-        <v>552.22642326354901</v>
+        <v>552.82762002944901</v>
       </c>
       <c r="C87">
-        <v>9.2037737210591608</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>173000</v>
-      </c>
-      <c r="B88">
-        <v>561.59329628944397</v>
-      </c>
-      <c r="C88">
-        <v>9.3598882714907301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>175000</v>
-      </c>
-      <c r="B89">
-        <v>569.36384987831104</v>
-      </c>
-      <c r="C89">
-        <v>9.4893974979718507</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>177000</v>
-      </c>
-      <c r="B90">
-        <v>575.75112724304199</v>
-      </c>
-      <c r="C90">
-        <v>9.5958521207173604</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>179000</v>
-      </c>
-      <c r="B91">
-        <v>581.50027680397</v>
-      </c>
-      <c r="C91">
-        <v>9.6916712800661706</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>181000</v>
-      </c>
-      <c r="B92">
-        <v>588.89575576782204</v>
-      </c>
-      <c r="C92">
-        <v>9.8149292627970297</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>183000</v>
-      </c>
-      <c r="B93">
-        <v>588.91075873374905</v>
-      </c>
-      <c r="C93">
-        <v>9.8151793122291497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>185000</v>
-      </c>
-      <c r="B94">
-        <v>599.36584925651505</v>
-      </c>
-      <c r="C94">
-        <v>9.9894308209419194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>187000</v>
-      </c>
-      <c r="B95">
-        <v>610.28703284263599</v>
-      </c>
-      <c r="C95">
-        <v>10.1714505473772</v>
+        <v>9.2137936671574892</v>
+      </c>
+      <c r="D87">
+        <v>4025516032</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>3839.03125</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D87"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:F204"/>
   <sheetViews>

--- a/benckmark.xlsx
+++ b/benckmark.xlsx
@@ -649,7 +649,7 @@
     <t>usage</t>
   </si>
   <si>
-    <t>usage/1MB</t>
+    <t>Usage per number of tweets</t>
   </si>
 </sst>
 </file>
@@ -1530,11 +1530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307214184"/>
-        <c:axId val="307214576"/>
+        <c:axId val="495675648"/>
+        <c:axId val="495676040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307214184"/>
+        <c:axId val="495675648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,12 +1591,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307214576"/>
+        <c:crossAx val="495676040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307214576"/>
+        <c:axId val="495676040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307214184"/>
+        <c:crossAx val="495675648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1737,7 +1737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance Graph</a:t>
+              <a:t>Performance per # of tweets</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2546,11 +2546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305248968"/>
-        <c:axId val="305249360"/>
+        <c:axId val="495676824"/>
+        <c:axId val="495677216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305248968"/>
+        <c:axId val="495676824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,12 +2668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305249360"/>
+        <c:crossAx val="495677216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305249360"/>
+        <c:axId val="495677216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +2786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305248968"/>
+        <c:crossAx val="495676824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2895,7 +2895,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>usage/1MB</c:v>
+                  <c:v>Usage per number of tweets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3457,16 +3457,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="416670752"/>
-        <c:axId val="416669968"/>
+        <c:axId val="494963656"/>
+        <c:axId val="494964048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="416670752"/>
+        <c:axId val="494963656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># tweets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3504,7 +3560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416669968"/>
+        <c:crossAx val="494964048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3512,7 +3568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416669968"/>
+        <c:axId val="494964048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,6 +3588,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>usage (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3563,7 +3675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416670752"/>
+        <c:crossAx val="494963656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5679,8 +5791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7332,7 +7444,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
